--- a/templates/productie/productie_opdracht_template.xlsx
+++ b/templates/productie/productie_opdracht_template.xlsx
@@ -5162,7 +5162,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-04 08:56:15.382047</t>
+    <t>2025-03-05 16:14:44.985609</t>
   </si>
   <si>
     <t>version</t>

--- a/templates/productie/productie_opdracht_template.xlsx
+++ b/templates/productie/productie_opdracht_template.xlsx
@@ -5162,13 +5162,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-05 16:14:44.985609</t>
+    <t>2025-03-19 12:18:10.283098</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.2</t>
+    <t>2.1.3</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_opdracht_template.xlsx
+++ b/templates/productie/productie_opdracht_template.xlsx
@@ -5162,25 +5162,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-19 12:18:10.283098</t>
+    <t>2025-04-17 10:01:22.006895</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.3</t>
+    <t>2.1.4</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.1.0</t>
+    <t>9.1.2</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.4.0</t>
+    <t>5.4.1</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/productie/productie_opdracht_template.xlsx
+++ b/templates/productie/productie_opdracht_template.xlsx
@@ -5162,25 +5162,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-04-17 10:01:22.006895</t>
+    <t>2025-06-27 02:17:32.050993</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.4</t>
+    <t>2.1.5</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.1.2</t>
+    <t>9.2.0</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.4.1</t>
+    <t>5.5.0</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/productie/productie_opdracht_template.xlsx
+++ b/templates/productie/productie_opdracht_template.xlsx
@@ -5162,13 +5162,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-06-27 02:17:32.050993</t>
+    <t>2025-08-06 15:10:52.745144</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.5</t>
+    <t>2.1.6</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_opdracht_template.xlsx
+++ b/templates/productie/productie_opdracht_template.xlsx
@@ -5162,13 +5162,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-08-06 15:10:52.745144</t>
+    <t>2025-09-18 15:21:09.146612</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.6</t>
+    <t>2.1.7</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_opdracht_template.xlsx
+++ b/templates/productie/productie_opdracht_template.xlsx
@@ -5237,7 +5237,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 09:28:00.547322</t>
+    <t>2025-09-22 09:59:14.816248</t>
   </si>
   <si>
     <t>version</t>
@@ -25911,10 +25911,10 @@
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
-      <formula1>'Codelijsten'!$A$4:''$A$29</formula1>
+      <formula1>'Codelijsten'!$A$4:$A$29</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1000001">
-      <formula1>'Codelijsten'!$C$4:''$C$18</formula1>
+      <formula1>'Codelijsten'!$C$4:$C$18</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1000001">
       <formula1>-146096</formula1>
@@ -25923,13 +25923,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L1000001">
-      <formula1>'Codelijsten'!$E$4:''$E$8</formula1>
+      <formula1>'Codelijsten'!$E$4:$E$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P1000001">
-      <formula1>'Codelijsten'!$G$4:''$G$86</formula1>
+      <formula1>'Codelijsten'!$G$4:$G$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -26746,25 +26746,25 @@
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1000001">
-      <formula1>'Codelijsten'!$I$4:''$I$14</formula1>
+      <formula1>'Codelijsten'!$I$4:$I$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1000001">
-      <formula1>'Codelijsten'!$K$4:''$K$5</formula1>
+      <formula1>'Codelijsten'!$K$4:$K$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1000001">
-      <formula1>'Codelijsten'!$M$4:''$M$86</formula1>
+      <formula1>'Codelijsten'!$M$4:$M$86</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1000001">
-      <formula1>'Codelijsten'!$O$4:''$O$12</formula1>
+      <formula1>'Codelijsten'!$O$4:$O$12</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1000001">
-      <formula1>'Codelijsten'!$Q$4:''$Q$40</formula1>
+      <formula1>'Codelijsten'!$Q$4:$Q$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1000001">
-      <formula1>'Codelijsten'!$S$4:''$S$6</formula1>
+      <formula1>'Codelijsten'!$S$4:$S$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7:AG1000001">
       <formula1>-146096</formula1>
@@ -26782,7 +26782,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD7:BD1000001">
-      <formula1>'Codelijsten'!$U$4:''$U$86</formula1>
+      <formula1>'Codelijsten'!$U$4:$U$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -27768,22 +27768,22 @@
   </mergeCells>
   <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1000001">
-      <formula1>'Codelijsten'!$W$4:''$W$1003</formula1>
+      <formula1>'Codelijsten'!$W$4:$W$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1000001">
-      <formula1>'Codelijsten'!$Y$4:''$Y$68</formula1>
+      <formula1>'Codelijsten'!$Y$4:$Y$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O1000001">
-      <formula1>'Codelijsten'!$AA$4:''$AA$68</formula1>
+      <formula1>'Codelijsten'!$AA$4:$AA$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB8:AB1000001">
-      <formula1>'Codelijsten'!$AC$4:''$AC$68</formula1>
+      <formula1>'Codelijsten'!$AC$4:$AC$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC8:AC1000001">
-      <formula1>'Codelijsten'!$AE$4:''$AE$6</formula1>
+      <formula1>'Codelijsten'!$AE$4:$AE$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD8:AD1000001">
-      <formula1>'Codelijsten'!$AG$4:''$AG$181</formula1>
+      <formula1>'Codelijsten'!$AG$4:$AG$181</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE8:AE1000001">
       <formula1>-146096</formula1>
@@ -27792,13 +27792,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001">
-      <formula1>'Codelijsten'!$AI$4:''$AI$6</formula1>
+      <formula1>'Codelijsten'!$AI$4:$AI$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY8:AY1000001">
-      <formula1>'Codelijsten'!$AK$4:''$AK$1003</formula1>
+      <formula1>'Codelijsten'!$AK$4:$AK$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB8:BB1000001">
-      <formula1>'Codelijsten'!$AM$4:''$AM$68</formula1>
+      <formula1>'Codelijsten'!$AM$4:$AM$68</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE8:BE1000001">
       <formula1>-146096</formula1>
@@ -27810,7 +27810,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR8:BR1000001">
-      <formula1>'Codelijsten'!$AO$4:''$AO$86</formula1>
+      <formula1>'Codelijsten'!$AO$4:$AO$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/templates/productie/productie_opdracht_template.xlsx
+++ b/templates/productie/productie_opdracht_template.xlsx
@@ -5237,7 +5237,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 09:59:14.816248</t>
+    <t>2025-09-22 11:00:03.253794</t>
   </si>
   <si>
     <t>version</t>
@@ -5255,7 +5255,7 @@
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>5.5.1</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/productie/productie_opdracht_template.xlsx
+++ b/templates/productie/productie_opdracht_template.xlsx
@@ -5237,13 +5237,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 11:00:03.253794</t>
+    <t>2025-09-24 17:44:33.261541</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.8</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_opdracht_template.xlsx
+++ b/templates/productie/productie_opdracht_template.xlsx
@@ -5237,13 +5237,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-24 17:44:33.261541</t>
+    <t>2025-09-24 22:46:47.335765</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_opdracht_template.xlsx
+++ b/templates/productie/productie_opdracht_template.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6387" uniqueCount="1750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6395" uniqueCount="1752">
   <si>
     <t>naam</t>
   </si>
@@ -4490,6 +4490,12 @@
     <t>DW</t>
   </si>
   <si>
+    <t>Dichlorpr-P</t>
+  </si>
+  <si>
+    <t>Dimethenamid-P</t>
+  </si>
+  <si>
     <t>voorbehandeling_observatie_type_bewaring</t>
   </si>
   <si>
@@ -5237,25 +5243,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-24 22:46:47.335765</t>
+    <t>2025-12-18 01:28:30.164161</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.2.1</t>
+    <t>2.2.2</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.2.2</t>
+    <t>9.4.0</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.5.1</t>
+    <t>5.7.0</t>
   </si>
   <si>
     <t>mode</t>
@@ -5412,7 +5418,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="W3:X1003" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="W3:X1005" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -5482,7 +5488,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="AK3:AL1003" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="AK3:AL1005" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -5876,7 +5882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP1003"/>
+  <dimension ref="A1:AP1005"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5913,7 +5919,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -6223,37 +6229,37 @@
         <v>42</v>
       </c>
       <c r="Y4" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="Z4" t="s">
         <v>42</v>
       </c>
       <c r="AA4" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="AB4" t="s">
         <v>42</v>
       </c>
       <c r="AC4" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="AD4" t="s">
         <v>42</v>
       </c>
       <c r="AE4" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="AF4" t="s">
         <v>42</v>
       </c>
       <c r="AG4" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="AH4" t="s">
         <v>42</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="AJ4" t="s">
         <v>42</v>
@@ -6265,7 +6271,7 @@
         <v>42</v>
       </c>
       <c r="AM4" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="AN4" t="s">
         <v>42</v>
@@ -6351,37 +6357,37 @@
         <v>42</v>
       </c>
       <c r="Y5" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="Z5" t="s">
         <v>42</v>
       </c>
       <c r="AA5" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="AB5" t="s">
         <v>42</v>
       </c>
       <c r="AC5" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="AD5" t="s">
         <v>42</v>
       </c>
       <c r="AE5" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="AF5" t="s">
         <v>42</v>
       </c>
       <c r="AG5" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AH5" t="s">
         <v>42</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="AJ5" t="s">
         <v>42</v>
@@ -6393,7 +6399,7 @@
         <v>42</v>
       </c>
       <c r="AM5" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="AN5" t="s">
         <v>42</v>
@@ -6473,37 +6479,37 @@
         <v>42</v>
       </c>
       <c r="Y6" t="s">
+        <v>1499</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE6" t="s">
         <v>1497</v>
       </c>
-      <c r="Z6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>1497</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>1497</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>1495</v>
-      </c>
       <c r="AF6" t="s">
         <v>42</v>
       </c>
       <c r="AG6" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="AH6" t="s">
         <v>42</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="AJ6" t="s">
         <v>42</v>
@@ -6515,7 +6521,7 @@
         <v>42</v>
       </c>
       <c r="AM6" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="AN6" t="s">
         <v>42</v>
@@ -6589,25 +6595,25 @@
         <v>42</v>
       </c>
       <c r="Y7" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="Z7" t="s">
         <v>42</v>
       </c>
       <c r="AA7" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="AB7" t="s">
         <v>42</v>
       </c>
       <c r="AC7" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="AD7" t="s">
         <v>42</v>
       </c>
       <c r="AG7" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="AH7" t="s">
         <v>42</v>
@@ -6619,7 +6625,7 @@
         <v>42</v>
       </c>
       <c r="AM7" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="AN7" t="s">
         <v>42</v>
@@ -6693,25 +6699,25 @@
         <v>42</v>
       </c>
       <c r="Y8" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="Z8" t="s">
         <v>42</v>
       </c>
       <c r="AA8" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="AB8" t="s">
         <v>42</v>
       </c>
       <c r="AC8" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="AD8" t="s">
         <v>42</v>
       </c>
       <c r="AG8" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="AH8" t="s">
         <v>42</v>
@@ -6723,7 +6729,7 @@
         <v>42</v>
       </c>
       <c r="AM8" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="AN8" t="s">
         <v>42</v>
@@ -6791,25 +6797,25 @@
         <v>42</v>
       </c>
       <c r="Y9" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="Z9" t="s">
         <v>42</v>
       </c>
       <c r="AA9" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="AB9" t="s">
         <v>42</v>
       </c>
       <c r="AC9" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="AD9" t="s">
         <v>42</v>
       </c>
       <c r="AG9" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="AH9" t="s">
         <v>42</v>
@@ -6821,7 +6827,7 @@
         <v>42</v>
       </c>
       <c r="AM9" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="AN9" t="s">
         <v>42</v>
@@ -6889,25 +6895,25 @@
         <v>42</v>
       </c>
       <c r="Y10" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="Z10" t="s">
         <v>42</v>
       </c>
       <c r="AA10" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="AB10" t="s">
         <v>42</v>
       </c>
       <c r="AC10" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="AD10" t="s">
         <v>42</v>
       </c>
       <c r="AG10" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="AH10" t="s">
         <v>42</v>
@@ -6919,7 +6925,7 @@
         <v>42</v>
       </c>
       <c r="AM10" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="AN10" t="s">
         <v>42</v>
@@ -6987,25 +6993,25 @@
         <v>42</v>
       </c>
       <c r="Y11" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="Z11" t="s">
         <v>42</v>
       </c>
       <c r="AA11" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="AB11" t="s">
         <v>42</v>
       </c>
       <c r="AC11" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="AD11" t="s">
         <v>42</v>
       </c>
       <c r="AG11" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="AH11" t="s">
         <v>42</v>
@@ -7017,7 +7023,7 @@
         <v>42</v>
       </c>
       <c r="AM11" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="AN11" t="s">
         <v>42</v>
@@ -7085,25 +7091,25 @@
         <v>42</v>
       </c>
       <c r="Y12" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="Z12" t="s">
         <v>42</v>
       </c>
       <c r="AA12" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="AB12" t="s">
         <v>42</v>
       </c>
       <c r="AC12" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="AD12" t="s">
         <v>42</v>
       </c>
       <c r="AG12" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="AH12" t="s">
         <v>42</v>
@@ -7115,7 +7121,7 @@
         <v>42</v>
       </c>
       <c r="AM12" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="AN12" t="s">
         <v>42</v>
@@ -7177,25 +7183,25 @@
         <v>42</v>
       </c>
       <c r="Y13" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="Z13" t="s">
         <v>42</v>
       </c>
       <c r="AA13" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="AB13" t="s">
         <v>42</v>
       </c>
       <c r="AC13" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="AD13" t="s">
         <v>42</v>
       </c>
       <c r="AG13" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AH13" t="s">
         <v>42</v>
@@ -7207,7 +7213,7 @@
         <v>42</v>
       </c>
       <c r="AM13" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="AN13" t="s">
         <v>42</v>
@@ -7269,25 +7275,25 @@
         <v>42</v>
       </c>
       <c r="Y14" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="Z14" t="s">
         <v>42</v>
       </c>
       <c r="AA14" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="AB14" t="s">
         <v>42</v>
       </c>
       <c r="AC14" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="AD14" t="s">
         <v>42</v>
       </c>
       <c r="AG14" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="AH14" t="s">
         <v>42</v>
@@ -7299,7 +7305,7 @@
         <v>42</v>
       </c>
       <c r="AM14" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="AN14" t="s">
         <v>42</v>
@@ -7355,25 +7361,25 @@
         <v>42</v>
       </c>
       <c r="Y15" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="Z15" t="s">
         <v>42</v>
       </c>
       <c r="AA15" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="AB15" t="s">
         <v>42</v>
       </c>
       <c r="AC15" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="AD15" t="s">
         <v>42</v>
       </c>
       <c r="AG15" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="AH15" t="s">
         <v>42</v>
@@ -7385,7 +7391,7 @@
         <v>42</v>
       </c>
       <c r="AM15" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="AN15" t="s">
         <v>42</v>
@@ -7441,25 +7447,25 @@
         <v>42</v>
       </c>
       <c r="Y16" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="Z16" t="s">
         <v>42</v>
       </c>
       <c r="AA16" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="AB16" t="s">
         <v>42</v>
       </c>
       <c r="AC16" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="AD16" t="s">
         <v>42</v>
       </c>
       <c r="AG16" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="AH16" t="s">
         <v>42</v>
@@ -7471,7 +7477,7 @@
         <v>42</v>
       </c>
       <c r="AM16" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="AN16" t="s">
         <v>42</v>
@@ -7527,25 +7533,25 @@
         <v>42</v>
       </c>
       <c r="Y17" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="Z17" t="s">
         <v>42</v>
       </c>
       <c r="AA17" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="AB17" t="s">
         <v>42</v>
       </c>
       <c r="AC17" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="AD17" t="s">
         <v>42</v>
       </c>
       <c r="AG17" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="AH17" t="s">
         <v>42</v>
@@ -7557,7 +7563,7 @@
         <v>42</v>
       </c>
       <c r="AM17" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="AN17" t="s">
         <v>42</v>
@@ -7613,25 +7619,25 @@
         <v>42</v>
       </c>
       <c r="Y18" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="Z18" t="s">
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="AB18" t="s">
         <v>42</v>
       </c>
       <c r="AC18" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="AD18" t="s">
         <v>42</v>
       </c>
       <c r="AG18" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="AH18" t="s">
         <v>42</v>
@@ -7643,7 +7649,7 @@
         <v>42</v>
       </c>
       <c r="AM18" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="AN18" t="s">
         <v>42</v>
@@ -7693,19 +7699,19 @@
         <v>42</v>
       </c>
       <c r="Y19" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="Z19" t="s">
         <v>42</v>
       </c>
       <c r="AA19" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="AB19" t="s">
         <v>42</v>
       </c>
       <c r="AC19" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="AD19" t="s">
         <v>42</v>
@@ -7723,7 +7729,7 @@
         <v>42</v>
       </c>
       <c r="AM19" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="AN19" t="s">
         <v>42</v>
@@ -7773,25 +7779,25 @@
         <v>42</v>
       </c>
       <c r="Y20" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="Z20" t="s">
         <v>42</v>
       </c>
       <c r="AA20" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="AB20" t="s">
         <v>42</v>
       </c>
       <c r="AC20" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="AD20" t="s">
         <v>42</v>
       </c>
       <c r="AG20" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="AH20" t="s">
         <v>42</v>
@@ -7803,7 +7809,7 @@
         <v>42</v>
       </c>
       <c r="AM20" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="AN20" t="s">
         <v>42</v>
@@ -7853,25 +7859,25 @@
         <v>42</v>
       </c>
       <c r="Y21" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="Z21" t="s">
         <v>42</v>
       </c>
       <c r="AA21" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="AB21" t="s">
         <v>42</v>
       </c>
       <c r="AC21" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="AD21" t="s">
         <v>42</v>
       </c>
       <c r="AG21" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="AH21" t="s">
         <v>42</v>
@@ -7883,7 +7889,7 @@
         <v>42</v>
       </c>
       <c r="AM21" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="AN21" t="s">
         <v>42</v>
@@ -7933,25 +7939,25 @@
         <v>42</v>
       </c>
       <c r="Y22" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="Z22" t="s">
         <v>42</v>
       </c>
       <c r="AA22" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="AB22" t="s">
         <v>42</v>
       </c>
       <c r="AC22" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="AD22" t="s">
         <v>42</v>
       </c>
       <c r="AG22" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="AH22" t="s">
         <v>42</v>
@@ -7963,7 +7969,7 @@
         <v>42</v>
       </c>
       <c r="AM22" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="AN22" t="s">
         <v>42</v>
@@ -8013,25 +8019,25 @@
         <v>42</v>
       </c>
       <c r="Y23" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="Z23" t="s">
         <v>42</v>
       </c>
       <c r="AA23" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="AB23" t="s">
         <v>42</v>
       </c>
       <c r="AC23" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="AD23" t="s">
         <v>42</v>
       </c>
       <c r="AG23" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="AH23" t="s">
         <v>42</v>
@@ -8043,7 +8049,7 @@
         <v>42</v>
       </c>
       <c r="AM23" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="AN23" t="s">
         <v>42</v>
@@ -8111,7 +8117,7 @@
         <v>42</v>
       </c>
       <c r="AG24" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="AH24" t="s">
         <v>42</v>
@@ -8173,25 +8179,25 @@
         <v>42</v>
       </c>
       <c r="Y25" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="Z25" t="s">
         <v>42</v>
       </c>
       <c r="AA25" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="AB25" t="s">
         <v>42</v>
       </c>
       <c r="AC25" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="AD25" t="s">
         <v>42</v>
       </c>
       <c r="AG25" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="AH25" t="s">
         <v>42</v>
@@ -8203,7 +8209,7 @@
         <v>42</v>
       </c>
       <c r="AM25" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="AN25" t="s">
         <v>42</v>
@@ -8253,25 +8259,25 @@
         <v>42</v>
       </c>
       <c r="Y26" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="Z26" t="s">
         <v>42</v>
       </c>
       <c r="AA26" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="AB26" t="s">
         <v>42</v>
       </c>
       <c r="AC26" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="AD26" t="s">
         <v>42</v>
       </c>
       <c r="AG26" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="AH26" t="s">
         <v>42</v>
@@ -8283,7 +8289,7 @@
         <v>42</v>
       </c>
       <c r="AM26" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="AN26" t="s">
         <v>42</v>
@@ -8333,25 +8339,25 @@
         <v>42</v>
       </c>
       <c r="Y27" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="Z27" t="s">
         <v>42</v>
       </c>
       <c r="AA27" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="AB27" t="s">
         <v>42</v>
       </c>
       <c r="AC27" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="AD27" t="s">
         <v>42</v>
       </c>
       <c r="AG27" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="AH27" t="s">
         <v>42</v>
@@ -8363,7 +8369,7 @@
         <v>42</v>
       </c>
       <c r="AM27" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="AN27" t="s">
         <v>42</v>
@@ -8413,25 +8419,25 @@
         <v>42</v>
       </c>
       <c r="Y28" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="Z28" t="s">
         <v>42</v>
       </c>
       <c r="AA28" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="AB28" t="s">
         <v>42</v>
       </c>
       <c r="AC28" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="AD28" t="s">
         <v>42</v>
       </c>
       <c r="AG28" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="AH28" t="s">
         <v>42</v>
@@ -8443,7 +8449,7 @@
         <v>42</v>
       </c>
       <c r="AM28" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="AN28" t="s">
         <v>42</v>
@@ -8493,25 +8499,25 @@
         <v>42</v>
       </c>
       <c r="Y29" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="Z29" t="s">
         <v>42</v>
       </c>
       <c r="AA29" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="AB29" t="s">
         <v>42</v>
       </c>
       <c r="AC29" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="AD29" t="s">
         <v>42</v>
       </c>
       <c r="AG29" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="AH29" t="s">
         <v>42</v>
@@ -8523,7 +8529,7 @@
         <v>42</v>
       </c>
       <c r="AM29" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="AN29" t="s">
         <v>42</v>
@@ -8567,25 +8573,25 @@
         <v>42</v>
       </c>
       <c r="Y30" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="Z30" t="s">
         <v>42</v>
       </c>
       <c r="AA30" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="AB30" t="s">
         <v>42</v>
       </c>
       <c r="AC30" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="AD30" t="s">
         <v>42</v>
       </c>
       <c r="AG30" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="AH30" t="s">
         <v>42</v>
@@ -8597,7 +8603,7 @@
         <v>42</v>
       </c>
       <c r="AM30" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="AN30" t="s">
         <v>42</v>
@@ -8641,25 +8647,25 @@
         <v>42</v>
       </c>
       <c r="Y31" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="Z31" t="s">
         <v>42</v>
       </c>
       <c r="AA31" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="AB31" t="s">
         <v>42</v>
       </c>
       <c r="AC31" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="AD31" t="s">
         <v>42</v>
       </c>
       <c r="AG31" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="AH31" t="s">
         <v>42</v>
@@ -8671,7 +8677,7 @@
         <v>42</v>
       </c>
       <c r="AM31" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="AN31" t="s">
         <v>42</v>
@@ -8715,25 +8721,25 @@
         <v>42</v>
       </c>
       <c r="Y32" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="Z32" t="s">
         <v>42</v>
       </c>
       <c r="AA32" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="AB32" t="s">
         <v>42</v>
       </c>
       <c r="AC32" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="AD32" t="s">
         <v>42</v>
       </c>
       <c r="AG32" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="AH32" t="s">
         <v>42</v>
@@ -8745,7 +8751,7 @@
         <v>42</v>
       </c>
       <c r="AM32" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="AN32" t="s">
         <v>42</v>
@@ -8789,25 +8795,25 @@
         <v>42</v>
       </c>
       <c r="Y33" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="Z33" t="s">
         <v>42</v>
       </c>
       <c r="AA33" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="AB33" t="s">
         <v>42</v>
       </c>
       <c r="AC33" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="AD33" t="s">
         <v>42</v>
       </c>
       <c r="AG33" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="AH33" t="s">
         <v>42</v>
@@ -8819,7 +8825,7 @@
         <v>42</v>
       </c>
       <c r="AM33" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="AN33" t="s">
         <v>42</v>
@@ -8863,25 +8869,25 @@
         <v>42</v>
       </c>
       <c r="Y34" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="Z34" t="s">
         <v>42</v>
       </c>
       <c r="AA34" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="AB34" t="s">
         <v>42</v>
       </c>
       <c r="AC34" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="AD34" t="s">
         <v>42</v>
       </c>
       <c r="AG34" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="AH34" t="s">
         <v>42</v>
@@ -8893,7 +8899,7 @@
         <v>42</v>
       </c>
       <c r="AM34" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="AN34" t="s">
         <v>42</v>
@@ -8937,25 +8943,25 @@
         <v>42</v>
       </c>
       <c r="Y35" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="Z35" t="s">
         <v>42</v>
       </c>
       <c r="AA35" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="AB35" t="s">
         <v>42</v>
       </c>
       <c r="AC35" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="AD35" t="s">
         <v>42</v>
       </c>
       <c r="AG35" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="AH35" t="s">
         <v>42</v>
@@ -8967,7 +8973,7 @@
         <v>42</v>
       </c>
       <c r="AM35" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="AN35" t="s">
         <v>42</v>
@@ -9011,25 +9017,25 @@
         <v>42</v>
       </c>
       <c r="Y36" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="Z36" t="s">
         <v>42</v>
       </c>
       <c r="AA36" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="AB36" t="s">
         <v>42</v>
       </c>
       <c r="AC36" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="AD36" t="s">
         <v>42</v>
       </c>
       <c r="AG36" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="AH36" t="s">
         <v>42</v>
@@ -9041,7 +9047,7 @@
         <v>42</v>
       </c>
       <c r="AM36" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="AN36" t="s">
         <v>42</v>
@@ -9085,25 +9091,25 @@
         <v>42</v>
       </c>
       <c r="Y37" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="Z37" t="s">
         <v>42</v>
       </c>
       <c r="AA37" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="AB37" t="s">
         <v>42</v>
       </c>
       <c r="AC37" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="AD37" t="s">
         <v>42</v>
       </c>
       <c r="AG37" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="AH37" t="s">
         <v>42</v>
@@ -9115,7 +9121,7 @@
         <v>42</v>
       </c>
       <c r="AM37" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="AN37" t="s">
         <v>42</v>
@@ -9159,25 +9165,25 @@
         <v>42</v>
       </c>
       <c r="Y38" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="Z38" t="s">
         <v>42</v>
       </c>
       <c r="AA38" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="AB38" t="s">
         <v>42</v>
       </c>
       <c r="AC38" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="AD38" t="s">
         <v>42</v>
       </c>
       <c r="AG38" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="AH38" t="s">
         <v>42</v>
@@ -9189,7 +9195,7 @@
         <v>42</v>
       </c>
       <c r="AM38" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="AN38" t="s">
         <v>42</v>
@@ -9233,25 +9239,25 @@
         <v>42</v>
       </c>
       <c r="Y39" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="Z39" t="s">
         <v>42</v>
       </c>
       <c r="AA39" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="AB39" t="s">
         <v>42</v>
       </c>
       <c r="AC39" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="AD39" t="s">
         <v>42</v>
       </c>
       <c r="AG39" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="AH39" t="s">
         <v>42</v>
@@ -9263,7 +9269,7 @@
         <v>42</v>
       </c>
       <c r="AM39" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="AN39" t="s">
         <v>42</v>
@@ -9307,25 +9313,25 @@
         <v>42</v>
       </c>
       <c r="Y40" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="Z40" t="s">
         <v>42</v>
       </c>
       <c r="AA40" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="AB40" t="s">
         <v>42</v>
       </c>
       <c r="AC40" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="AD40" t="s">
         <v>42</v>
       </c>
       <c r="AG40" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="AH40" t="s">
         <v>42</v>
@@ -9337,7 +9343,7 @@
         <v>42</v>
       </c>
       <c r="AM40" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="AN40" t="s">
         <v>42</v>
@@ -9375,25 +9381,25 @@
         <v>42</v>
       </c>
       <c r="Y41" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="Z41" t="s">
         <v>42</v>
       </c>
       <c r="AA41" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="AB41" t="s">
         <v>42</v>
       </c>
       <c r="AC41" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="AD41" t="s">
         <v>42</v>
       </c>
       <c r="AG41" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="AH41" t="s">
         <v>42</v>
@@ -9405,7 +9411,7 @@
         <v>42</v>
       </c>
       <c r="AM41" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="AN41" t="s">
         <v>42</v>
@@ -9443,25 +9449,25 @@
         <v>42</v>
       </c>
       <c r="Y42" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="Z42" t="s">
         <v>42</v>
       </c>
       <c r="AA42" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="AB42" t="s">
         <v>42</v>
       </c>
       <c r="AC42" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="AD42" t="s">
         <v>42</v>
       </c>
       <c r="AG42" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="AH42" t="s">
         <v>42</v>
@@ -9473,7 +9479,7 @@
         <v>42</v>
       </c>
       <c r="AM42" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="AN42" t="s">
         <v>42</v>
@@ -9511,25 +9517,25 @@
         <v>42</v>
       </c>
       <c r="Y43" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="Z43" t="s">
         <v>42</v>
       </c>
       <c r="AA43" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="AB43" t="s">
         <v>42</v>
       </c>
       <c r="AC43" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="AD43" t="s">
         <v>42</v>
       </c>
       <c r="AG43" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="AH43" t="s">
         <v>42</v>
@@ -9541,7 +9547,7 @@
         <v>42</v>
       </c>
       <c r="AM43" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="AN43" t="s">
         <v>42</v>
@@ -9579,25 +9585,25 @@
         <v>42</v>
       </c>
       <c r="Y44" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="Z44" t="s">
         <v>42</v>
       </c>
       <c r="AA44" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="AB44" t="s">
         <v>42</v>
       </c>
       <c r="AC44" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="AD44" t="s">
         <v>42</v>
       </c>
       <c r="AG44" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="AH44" t="s">
         <v>42</v>
@@ -9609,7 +9615,7 @@
         <v>42</v>
       </c>
       <c r="AM44" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="AN44" t="s">
         <v>42</v>
@@ -9647,25 +9653,25 @@
         <v>42</v>
       </c>
       <c r="Y45" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="Z45" t="s">
         <v>42</v>
       </c>
       <c r="AA45" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="AB45" t="s">
         <v>42</v>
       </c>
       <c r="AC45" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="AD45" t="s">
         <v>42</v>
       </c>
       <c r="AG45" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="AH45" t="s">
         <v>42</v>
@@ -9677,7 +9683,7 @@
         <v>42</v>
       </c>
       <c r="AM45" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="AN45" t="s">
         <v>42</v>
@@ -9715,25 +9721,25 @@
         <v>42</v>
       </c>
       <c r="Y46" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="Z46" t="s">
         <v>42</v>
       </c>
       <c r="AA46" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="AB46" t="s">
         <v>42</v>
       </c>
       <c r="AC46" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="AD46" t="s">
         <v>42</v>
       </c>
       <c r="AG46" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="AH46" t="s">
         <v>42</v>
@@ -9745,7 +9751,7 @@
         <v>42</v>
       </c>
       <c r="AM46" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="AN46" t="s">
         <v>42</v>
@@ -9783,25 +9789,25 @@
         <v>42</v>
       </c>
       <c r="Y47" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="Z47" t="s">
         <v>42</v>
       </c>
       <c r="AA47" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="AB47" t="s">
         <v>42</v>
       </c>
       <c r="AC47" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="AD47" t="s">
         <v>42</v>
       </c>
       <c r="AG47" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="AH47" t="s">
         <v>42</v>
@@ -9813,7 +9819,7 @@
         <v>42</v>
       </c>
       <c r="AM47" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="AN47" t="s">
         <v>42</v>
@@ -9851,25 +9857,25 @@
         <v>42</v>
       </c>
       <c r="Y48" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="Z48" t="s">
         <v>42</v>
       </c>
       <c r="AA48" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="AB48" t="s">
         <v>42</v>
       </c>
       <c r="AC48" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="AD48" t="s">
         <v>42</v>
       </c>
       <c r="AG48" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="AH48" t="s">
         <v>42</v>
@@ -9881,7 +9887,7 @@
         <v>42</v>
       </c>
       <c r="AM48" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="AN48" t="s">
         <v>42</v>
@@ -9919,25 +9925,25 @@
         <v>42</v>
       </c>
       <c r="Y49" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="Z49" t="s">
         <v>42</v>
       </c>
       <c r="AA49" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="AB49" t="s">
         <v>42</v>
       </c>
       <c r="AC49" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="AD49" t="s">
         <v>42</v>
       </c>
       <c r="AG49" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="AH49" t="s">
         <v>42</v>
@@ -9949,7 +9955,7 @@
         <v>42</v>
       </c>
       <c r="AM49" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="AN49" t="s">
         <v>42</v>
@@ -9987,25 +9993,25 @@
         <v>42</v>
       </c>
       <c r="Y50" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="Z50" t="s">
         <v>42</v>
       </c>
       <c r="AA50" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="AB50" t="s">
         <v>42</v>
       </c>
       <c r="AC50" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="AD50" t="s">
         <v>42</v>
       </c>
       <c r="AG50" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="AH50" t="s">
         <v>42</v>
@@ -10017,7 +10023,7 @@
         <v>42</v>
       </c>
       <c r="AM50" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="AN50" t="s">
         <v>42</v>
@@ -10055,25 +10061,25 @@
         <v>42</v>
       </c>
       <c r="Y51" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="Z51" t="s">
         <v>42</v>
       </c>
       <c r="AA51" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="AB51" t="s">
         <v>42</v>
       </c>
       <c r="AC51" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="AD51" t="s">
         <v>42</v>
       </c>
       <c r="AG51" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="AH51" t="s">
         <v>42</v>
@@ -10085,7 +10091,7 @@
         <v>42</v>
       </c>
       <c r="AM51" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="AN51" t="s">
         <v>42</v>
@@ -10123,25 +10129,25 @@
         <v>42</v>
       </c>
       <c r="Y52" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="Z52" t="s">
         <v>42</v>
       </c>
       <c r="AA52" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AB52" t="s">
         <v>42</v>
       </c>
       <c r="AC52" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AD52" t="s">
         <v>42</v>
       </c>
       <c r="AG52" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="AH52" t="s">
         <v>42</v>
@@ -10153,7 +10159,7 @@
         <v>42</v>
       </c>
       <c r="AM52" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AN52" t="s">
         <v>42</v>
@@ -10191,25 +10197,25 @@
         <v>42</v>
       </c>
       <c r="Y53" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="Z53" t="s">
         <v>42</v>
       </c>
       <c r="AA53" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AB53" t="s">
         <v>42</v>
       </c>
       <c r="AC53" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AD53" t="s">
         <v>42</v>
       </c>
       <c r="AG53" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="AH53" t="s">
         <v>42</v>
@@ -10221,7 +10227,7 @@
         <v>42</v>
       </c>
       <c r="AM53" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AN53" t="s">
         <v>42</v>
@@ -10259,25 +10265,25 @@
         <v>42</v>
       </c>
       <c r="Y54" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="Z54" t="s">
         <v>42</v>
       </c>
       <c r="AA54" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AB54" t="s">
         <v>42</v>
       </c>
       <c r="AC54" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AD54" t="s">
         <v>42</v>
       </c>
       <c r="AG54" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="AH54" t="s">
         <v>42</v>
@@ -10289,7 +10295,7 @@
         <v>42</v>
       </c>
       <c r="AM54" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AN54" t="s">
         <v>42</v>
@@ -10327,25 +10333,25 @@
         <v>42</v>
       </c>
       <c r="Y55" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="Z55" t="s">
         <v>42</v>
       </c>
       <c r="AA55" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="AB55" t="s">
         <v>42</v>
       </c>
       <c r="AC55" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="AD55" t="s">
         <v>42</v>
       </c>
       <c r="AG55" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="AH55" t="s">
         <v>42</v>
@@ -10357,7 +10363,7 @@
         <v>42</v>
       </c>
       <c r="AM55" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="AN55" t="s">
         <v>42</v>
@@ -10395,25 +10401,25 @@
         <v>42</v>
       </c>
       <c r="Y56" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="Z56" t="s">
         <v>42</v>
       </c>
       <c r="AA56" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AB56" t="s">
         <v>42</v>
       </c>
       <c r="AC56" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AD56" t="s">
         <v>42</v>
       </c>
       <c r="AG56" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="AH56" t="s">
         <v>42</v>
@@ -10425,7 +10431,7 @@
         <v>42</v>
       </c>
       <c r="AM56" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AN56" t="s">
         <v>42</v>
@@ -10463,25 +10469,25 @@
         <v>42</v>
       </c>
       <c r="Y57" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="Z57" t="s">
         <v>42</v>
       </c>
       <c r="AA57" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="AB57" t="s">
         <v>42</v>
       </c>
       <c r="AC57" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="AD57" t="s">
         <v>42</v>
       </c>
       <c r="AG57" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="AH57" t="s">
         <v>42</v>
@@ -10493,7 +10499,7 @@
         <v>42</v>
       </c>
       <c r="AM57" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="AN57" t="s">
         <v>42</v>
@@ -10531,25 +10537,25 @@
         <v>42</v>
       </c>
       <c r="Y58" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="Z58" t="s">
         <v>42</v>
       </c>
       <c r="AA58" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AB58" t="s">
         <v>42</v>
       </c>
       <c r="AC58" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AD58" t="s">
         <v>42</v>
       </c>
       <c r="AG58" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="AH58" t="s">
         <v>42</v>
@@ -10561,7 +10567,7 @@
         <v>42</v>
       </c>
       <c r="AM58" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AN58" t="s">
         <v>42</v>
@@ -10599,25 +10605,25 @@
         <v>42</v>
       </c>
       <c r="Y59" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="Z59" t="s">
         <v>42</v>
       </c>
       <c r="AA59" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="AB59" t="s">
         <v>42</v>
       </c>
       <c r="AC59" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="AD59" t="s">
         <v>42</v>
       </c>
       <c r="AG59" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="AH59" t="s">
         <v>42</v>
@@ -10629,7 +10635,7 @@
         <v>42</v>
       </c>
       <c r="AM59" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="AN59" t="s">
         <v>42</v>
@@ -10667,25 +10673,25 @@
         <v>42</v>
       </c>
       <c r="Y60" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="Z60" t="s">
         <v>42</v>
       </c>
       <c r="AA60" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="AB60" t="s">
         <v>42</v>
       </c>
       <c r="AC60" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="AD60" t="s">
         <v>42</v>
       </c>
       <c r="AG60" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AH60" t="s">
         <v>42</v>
@@ -10697,7 +10703,7 @@
         <v>42</v>
       </c>
       <c r="AM60" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="AN60" t="s">
         <v>42</v>
@@ -10735,25 +10741,25 @@
         <v>42</v>
       </c>
       <c r="Y61" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="Z61" t="s">
         <v>42</v>
       </c>
       <c r="AA61" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="AB61" t="s">
         <v>42</v>
       </c>
       <c r="AC61" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="AD61" t="s">
         <v>42</v>
       </c>
       <c r="AG61" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="AH61" t="s">
         <v>42</v>
@@ -10765,7 +10771,7 @@
         <v>42</v>
       </c>
       <c r="AM61" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="AN61" t="s">
         <v>42</v>
@@ -10803,25 +10809,25 @@
         <v>42</v>
       </c>
       <c r="Y62" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="Z62" t="s">
         <v>42</v>
       </c>
       <c r="AA62" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="AB62" t="s">
         <v>42</v>
       </c>
       <c r="AC62" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="AD62" t="s">
         <v>42</v>
       </c>
       <c r="AG62" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="AH62" t="s">
         <v>42</v>
@@ -10833,7 +10839,7 @@
         <v>42</v>
       </c>
       <c r="AM62" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="AN62" t="s">
         <v>42</v>
@@ -10871,25 +10877,25 @@
         <v>42</v>
       </c>
       <c r="Y63" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="Z63" t="s">
         <v>42</v>
       </c>
       <c r="AA63" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="AB63" t="s">
         <v>42</v>
       </c>
       <c r="AC63" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="AD63" t="s">
         <v>42</v>
       </c>
       <c r="AG63" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="AH63" t="s">
         <v>42</v>
@@ -10901,7 +10907,7 @@
         <v>42</v>
       </c>
       <c r="AM63" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="AN63" t="s">
         <v>42</v>
@@ -10957,7 +10963,7 @@
         <v>42</v>
       </c>
       <c r="AG64" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="AH64" t="s">
         <v>42</v>
@@ -11007,25 +11013,25 @@
         <v>42</v>
       </c>
       <c r="Y65" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="Z65" t="s">
         <v>42</v>
       </c>
       <c r="AA65" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="AB65" t="s">
         <v>42</v>
       </c>
       <c r="AC65" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="AD65" t="s">
         <v>42</v>
       </c>
       <c r="AG65" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="AH65" t="s">
         <v>42</v>
@@ -11037,7 +11043,7 @@
         <v>42</v>
       </c>
       <c r="AM65" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="AN65" t="s">
         <v>42</v>
@@ -11075,25 +11081,25 @@
         <v>42</v>
       </c>
       <c r="Y66" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="Z66" t="s">
         <v>42</v>
       </c>
       <c r="AA66" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="AB66" t="s">
         <v>42</v>
       </c>
       <c r="AC66" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="AD66" t="s">
         <v>42</v>
       </c>
       <c r="AG66" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="AH66" t="s">
         <v>42</v>
@@ -11105,7 +11111,7 @@
         <v>42</v>
       </c>
       <c r="AM66" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="AN66" t="s">
         <v>42</v>
@@ -11143,25 +11149,25 @@
         <v>42</v>
       </c>
       <c r="Y67" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="Z67" t="s">
         <v>42</v>
       </c>
       <c r="AA67" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="AB67" t="s">
         <v>42</v>
       </c>
       <c r="AC67" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="AD67" t="s">
         <v>42</v>
       </c>
       <c r="AG67" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="AH67" t="s">
         <v>42</v>
@@ -11173,7 +11179,7 @@
         <v>42</v>
       </c>
       <c r="AM67" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="AN67" t="s">
         <v>42</v>
@@ -11211,25 +11217,25 @@
         <v>42</v>
       </c>
       <c r="Y68" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="Z68" t="s">
         <v>42</v>
       </c>
       <c r="AA68" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="AB68" t="s">
         <v>42</v>
       </c>
       <c r="AC68" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="AD68" t="s">
         <v>42</v>
       </c>
       <c r="AG68" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="AH68" t="s">
         <v>42</v>
@@ -11241,7 +11247,7 @@
         <v>42</v>
       </c>
       <c r="AM68" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="AN68" t="s">
         <v>42</v>
@@ -11279,7 +11285,7 @@
         <v>42</v>
       </c>
       <c r="AG69" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="AH69" t="s">
         <v>42</v>
@@ -11323,7 +11329,7 @@
         <v>42</v>
       </c>
       <c r="AG70" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="AH70" t="s">
         <v>42</v>
@@ -11367,7 +11373,7 @@
         <v>42</v>
       </c>
       <c r="AG71" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="AH71" t="s">
         <v>42</v>
@@ -11411,7 +11417,7 @@
         <v>42</v>
       </c>
       <c r="AG72" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="AH72" t="s">
         <v>42</v>
@@ -11455,7 +11461,7 @@
         <v>42</v>
       </c>
       <c r="AG73" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AH73" t="s">
         <v>42</v>
@@ -11499,7 +11505,7 @@
         <v>42</v>
       </c>
       <c r="AG74" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AH74" t="s">
         <v>42</v>
@@ -11543,7 +11549,7 @@
         <v>42</v>
       </c>
       <c r="AG75" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AH75" t="s">
         <v>42</v>
@@ -11587,7 +11593,7 @@
         <v>42</v>
       </c>
       <c r="AG76" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="AH76" t="s">
         <v>42</v>
@@ -11631,7 +11637,7 @@
         <v>42</v>
       </c>
       <c r="AG77" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="AH77" t="s">
         <v>42</v>
@@ -11675,7 +11681,7 @@
         <v>42</v>
       </c>
       <c r="AG78" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AH78" t="s">
         <v>42</v>
@@ -11719,7 +11725,7 @@
         <v>42</v>
       </c>
       <c r="AG79" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="AH79" t="s">
         <v>42</v>
@@ -11763,7 +11769,7 @@
         <v>42</v>
       </c>
       <c r="AG80" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AH80" t="s">
         <v>42</v>
@@ -11807,7 +11813,7 @@
         <v>42</v>
       </c>
       <c r="AG81" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="AH81" t="s">
         <v>42</v>
@@ -11851,7 +11857,7 @@
         <v>42</v>
       </c>
       <c r="AG82" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="AH82" t="s">
         <v>42</v>
@@ -11895,7 +11901,7 @@
         <v>42</v>
       </c>
       <c r="AG83" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="AH83" t="s">
         <v>42</v>
@@ -11939,7 +11945,7 @@
         <v>42</v>
       </c>
       <c r="AG84" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AH84" t="s">
         <v>42</v>
@@ -11983,7 +11989,7 @@
         <v>42</v>
       </c>
       <c r="AG85" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AH85" t="s">
         <v>42</v>
@@ -12027,7 +12033,7 @@
         <v>42</v>
       </c>
       <c r="AG86" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AH86" t="s">
         <v>42</v>
@@ -12053,7 +12059,7 @@
         <v>42</v>
       </c>
       <c r="AG87" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="AH87" t="s">
         <v>42</v>
@@ -12073,7 +12079,7 @@
         <v>42</v>
       </c>
       <c r="AG88" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AH88" t="s">
         <v>42</v>
@@ -12093,7 +12099,7 @@
         <v>42</v>
       </c>
       <c r="AG89" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="AH89" t="s">
         <v>42</v>
@@ -12113,7 +12119,7 @@
         <v>42</v>
       </c>
       <c r="AG90" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AH90" t="s">
         <v>42</v>
@@ -12133,7 +12139,7 @@
         <v>42</v>
       </c>
       <c r="AG91" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="AH91" t="s">
         <v>42</v>
@@ -12173,7 +12179,7 @@
         <v>42</v>
       </c>
       <c r="AG93" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AH93" t="s">
         <v>42</v>
@@ -12193,7 +12199,7 @@
         <v>42</v>
       </c>
       <c r="AG94" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="AH94" t="s">
         <v>42</v>
@@ -12213,7 +12219,7 @@
         <v>42</v>
       </c>
       <c r="AG95" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="AH95" t="s">
         <v>42</v>
@@ -12233,7 +12239,7 @@
         <v>42</v>
       </c>
       <c r="AG96" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AH96" t="s">
         <v>42</v>
@@ -12253,7 +12259,7 @@
         <v>42</v>
       </c>
       <c r="AG97" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="AH97" t="s">
         <v>42</v>
@@ -12273,7 +12279,7 @@
         <v>42</v>
       </c>
       <c r="AG98" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="AH98" t="s">
         <v>42</v>
@@ -12293,7 +12299,7 @@
         <v>42</v>
       </c>
       <c r="AG99" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="AH99" t="s">
         <v>42</v>
@@ -12313,7 +12319,7 @@
         <v>42</v>
       </c>
       <c r="AG100" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="AH100" t="s">
         <v>42</v>
@@ -12333,7 +12339,7 @@
         <v>42</v>
       </c>
       <c r="AG101" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="AH101" t="s">
         <v>42</v>
@@ -12353,7 +12359,7 @@
         <v>42</v>
       </c>
       <c r="AG102" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="AH102" t="s">
         <v>42</v>
@@ -12373,7 +12379,7 @@
         <v>42</v>
       </c>
       <c r="AG103" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="AH103" t="s">
         <v>42</v>
@@ -12393,7 +12399,7 @@
         <v>42</v>
       </c>
       <c r="AG104" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AH104" t="s">
         <v>42</v>
@@ -12413,7 +12419,7 @@
         <v>42</v>
       </c>
       <c r="AG105" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="AH105" t="s">
         <v>42</v>
@@ -12433,7 +12439,7 @@
         <v>42</v>
       </c>
       <c r="AG106" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="AH106" t="s">
         <v>42</v>
@@ -12453,7 +12459,7 @@
         <v>42</v>
       </c>
       <c r="AG107" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="AH107" t="s">
         <v>42</v>
@@ -12473,7 +12479,7 @@
         <v>42</v>
       </c>
       <c r="AG108" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="AH108" t="s">
         <v>42</v>
@@ -12493,7 +12499,7 @@
         <v>42</v>
       </c>
       <c r="AG109" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="AH109" t="s">
         <v>42</v>
@@ -12513,7 +12519,7 @@
         <v>42</v>
       </c>
       <c r="AG110" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="AH110" t="s">
         <v>42</v>
@@ -12533,7 +12539,7 @@
         <v>42</v>
       </c>
       <c r="AG111" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="AH111" t="s">
         <v>42</v>
@@ -12553,7 +12559,7 @@
         <v>42</v>
       </c>
       <c r="AG112" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AH112" t="s">
         <v>42</v>
@@ -12573,7 +12579,7 @@
         <v>42</v>
       </c>
       <c r="AG113" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="AH113" t="s">
         <v>42</v>
@@ -12593,7 +12599,7 @@
         <v>42</v>
       </c>
       <c r="AG114" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="AH114" t="s">
         <v>42</v>
@@ -12613,7 +12619,7 @@
         <v>42</v>
       </c>
       <c r="AG115" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="AH115" t="s">
         <v>42</v>
@@ -12633,7 +12639,7 @@
         <v>42</v>
       </c>
       <c r="AG116" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="AH116" t="s">
         <v>42</v>
@@ -12653,7 +12659,7 @@
         <v>42</v>
       </c>
       <c r="AG117" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="AH117" t="s">
         <v>42</v>
@@ -12673,7 +12679,7 @@
         <v>42</v>
       </c>
       <c r="AG118" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="AH118" t="s">
         <v>42</v>
@@ -12693,7 +12699,7 @@
         <v>42</v>
       </c>
       <c r="AG119" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="AH119" t="s">
         <v>42</v>
@@ -12713,7 +12719,7 @@
         <v>42</v>
       </c>
       <c r="AG120" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="AH120" t="s">
         <v>42</v>
@@ -12733,7 +12739,7 @@
         <v>42</v>
       </c>
       <c r="AG121" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="AH121" t="s">
         <v>42</v>
@@ -12753,7 +12759,7 @@
         <v>42</v>
       </c>
       <c r="AG122" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="AH122" t="s">
         <v>42</v>
@@ -12773,7 +12779,7 @@
         <v>42</v>
       </c>
       <c r="AG123" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="AH123" t="s">
         <v>42</v>
@@ -12793,7 +12799,7 @@
         <v>42</v>
       </c>
       <c r="AG124" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="AH124" t="s">
         <v>42</v>
@@ -12813,7 +12819,7 @@
         <v>42</v>
       </c>
       <c r="AG125" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="AH125" t="s">
         <v>42</v>
@@ -12833,7 +12839,7 @@
         <v>42</v>
       </c>
       <c r="AG126" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="AH126" t="s">
         <v>42</v>
@@ -12853,7 +12859,7 @@
         <v>42</v>
       </c>
       <c r="AG127" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="AH127" t="s">
         <v>42</v>
@@ -12873,7 +12879,7 @@
         <v>42</v>
       </c>
       <c r="AG128" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="AH128" t="s">
         <v>42</v>
@@ -12893,7 +12899,7 @@
         <v>42</v>
       </c>
       <c r="AG129" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="AH129" t="s">
         <v>42</v>
@@ -12913,7 +12919,7 @@
         <v>42</v>
       </c>
       <c r="AG130" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="AH130" t="s">
         <v>42</v>
@@ -12933,7 +12939,7 @@
         <v>42</v>
       </c>
       <c r="AG131" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="AH131" t="s">
         <v>42</v>
@@ -12953,7 +12959,7 @@
         <v>42</v>
       </c>
       <c r="AG132" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="AH132" t="s">
         <v>42</v>
@@ -12973,7 +12979,7 @@
         <v>42</v>
       </c>
       <c r="AG133" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="AH133" t="s">
         <v>42</v>
@@ -12993,7 +12999,7 @@
         <v>42</v>
       </c>
       <c r="AG134" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="AH134" t="s">
         <v>42</v>
@@ -13013,7 +13019,7 @@
         <v>42</v>
       </c>
       <c r="AG135" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="AH135" t="s">
         <v>42</v>
@@ -13033,7 +13039,7 @@
         <v>42</v>
       </c>
       <c r="AG136" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="AH136" t="s">
         <v>42</v>
@@ -13053,7 +13059,7 @@
         <v>42</v>
       </c>
       <c r="AG137" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="AH137" t="s">
         <v>42</v>
@@ -13073,7 +13079,7 @@
         <v>42</v>
       </c>
       <c r="AG138" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="AH138" t="s">
         <v>42</v>
@@ -13093,7 +13099,7 @@
         <v>42</v>
       </c>
       <c r="AG139" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AH139" t="s">
         <v>42</v>
@@ -13113,7 +13119,7 @@
         <v>42</v>
       </c>
       <c r="AG140" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="AH140" t="s">
         <v>42</v>
@@ -13133,7 +13139,7 @@
         <v>42</v>
       </c>
       <c r="AG141" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="AH141" t="s">
         <v>42</v>
@@ -13173,7 +13179,7 @@
         <v>42</v>
       </c>
       <c r="AG143" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="AH143" t="s">
         <v>42</v>
@@ -13193,7 +13199,7 @@
         <v>42</v>
       </c>
       <c r="AG144" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="AH144" t="s">
         <v>42</v>
@@ -13213,7 +13219,7 @@
         <v>42</v>
       </c>
       <c r="AG145" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="AH145" t="s">
         <v>42</v>
@@ -13233,7 +13239,7 @@
         <v>42</v>
       </c>
       <c r="AG146" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="AH146" t="s">
         <v>42</v>
@@ -13253,7 +13259,7 @@
         <v>42</v>
       </c>
       <c r="AG147" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="AH147" t="s">
         <v>42</v>
@@ -13273,7 +13279,7 @@
         <v>42</v>
       </c>
       <c r="AG148" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="AH148" t="s">
         <v>42</v>
@@ -13293,7 +13299,7 @@
         <v>42</v>
       </c>
       <c r="AG149" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="AH149" t="s">
         <v>42</v>
@@ -13313,7 +13319,7 @@
         <v>42</v>
       </c>
       <c r="AG150" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="AH150" t="s">
         <v>42</v>
@@ -13333,7 +13339,7 @@
         <v>42</v>
       </c>
       <c r="AG151" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="AH151" t="s">
         <v>42</v>
@@ -13353,7 +13359,7 @@
         <v>42</v>
       </c>
       <c r="AG152" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="AH152" t="s">
         <v>42</v>
@@ -13373,7 +13379,7 @@
         <v>42</v>
       </c>
       <c r="AG153" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="AH153" t="s">
         <v>42</v>
@@ -13393,7 +13399,7 @@
         <v>42</v>
       </c>
       <c r="AG154" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="AH154" t="s">
         <v>42</v>
@@ -13413,7 +13419,7 @@
         <v>42</v>
       </c>
       <c r="AG155" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="AH155" t="s">
         <v>42</v>
@@ -13433,7 +13439,7 @@
         <v>42</v>
       </c>
       <c r="AG156" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="AH156" t="s">
         <v>42</v>
@@ -13453,7 +13459,7 @@
         <v>42</v>
       </c>
       <c r="AG157" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="AH157" t="s">
         <v>42</v>
@@ -13473,7 +13479,7 @@
         <v>42</v>
       </c>
       <c r="AG158" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="AH158" t="s">
         <v>42</v>
@@ -13493,7 +13499,7 @@
         <v>42</v>
       </c>
       <c r="AG159" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="AH159" t="s">
         <v>42</v>
@@ -13513,7 +13519,7 @@
         <v>42</v>
       </c>
       <c r="AG160" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="AH160" t="s">
         <v>42</v>
@@ -13533,7 +13539,7 @@
         <v>42</v>
       </c>
       <c r="AG161" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="AH161" t="s">
         <v>42</v>
@@ -13553,7 +13559,7 @@
         <v>42</v>
       </c>
       <c r="AG162" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="AH162" t="s">
         <v>42</v>
@@ -13573,7 +13579,7 @@
         <v>42</v>
       </c>
       <c r="AG163" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="AH163" t="s">
         <v>42</v>
@@ -13593,7 +13599,7 @@
         <v>42</v>
       </c>
       <c r="AG164" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="AH164" t="s">
         <v>42</v>
@@ -13613,7 +13619,7 @@
         <v>42</v>
       </c>
       <c r="AG165" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="AH165" t="s">
         <v>42</v>
@@ -13633,7 +13639,7 @@
         <v>42</v>
       </c>
       <c r="AG166" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="AH166" t="s">
         <v>42</v>
@@ -13653,7 +13659,7 @@
         <v>42</v>
       </c>
       <c r="AG167" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="AH167" t="s">
         <v>42</v>
@@ -13673,7 +13679,7 @@
         <v>42</v>
       </c>
       <c r="AG168" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="AH168" t="s">
         <v>42</v>
@@ -13693,7 +13699,7 @@
         <v>42</v>
       </c>
       <c r="AG169" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="AH169" t="s">
         <v>42</v>
@@ -13713,7 +13719,7 @@
         <v>42</v>
       </c>
       <c r="AG170" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="AH170" t="s">
         <v>42</v>
@@ -13733,7 +13739,7 @@
         <v>42</v>
       </c>
       <c r="AG171" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="AH171" t="s">
         <v>42</v>
@@ -13753,7 +13759,7 @@
         <v>42</v>
       </c>
       <c r="AG172" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="AH172" t="s">
         <v>42</v>
@@ -13773,7 +13779,7 @@
         <v>42</v>
       </c>
       <c r="AG173" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="AH173" t="s">
         <v>42</v>
@@ -13793,7 +13799,7 @@
         <v>42</v>
       </c>
       <c r="AG174" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="AH174" t="s">
         <v>42</v>
@@ -13813,7 +13819,7 @@
         <v>42</v>
       </c>
       <c r="AG175" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="AH175" t="s">
         <v>42</v>
@@ -13833,7 +13839,7 @@
         <v>42</v>
       </c>
       <c r="AG176" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="AH176" t="s">
         <v>42</v>
@@ -13853,7 +13859,7 @@
         <v>42</v>
       </c>
       <c r="AG177" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="AH177" t="s">
         <v>42</v>
@@ -13873,7 +13879,7 @@
         <v>42</v>
       </c>
       <c r="AG178" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="AH178" t="s">
         <v>42</v>
@@ -13893,7 +13899,7 @@
         <v>42</v>
       </c>
       <c r="AG179" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="AH179" t="s">
         <v>42</v>
@@ -13913,7 +13919,7 @@
         <v>42</v>
       </c>
       <c r="AG180" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AH180" t="s">
         <v>42</v>
@@ -13933,7 +13939,7 @@
         <v>42</v>
       </c>
       <c r="AG181" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="AH181" t="s">
         <v>42</v>
@@ -25371,13 +25377,13 @@
     </row>
     <row r="998" spans="23:38">
       <c r="W998" t="s">
-        <v>463</v>
+        <v>1490</v>
       </c>
       <c r="X998" t="s">
         <v>42</v>
       </c>
       <c r="AK998" t="s">
-        <v>463</v>
+        <v>1490</v>
       </c>
       <c r="AL998" t="s">
         <v>42</v>
@@ -25385,13 +25391,13 @@
     </row>
     <row r="999" spans="23:38">
       <c r="W999" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="X999" t="s">
         <v>42</v>
       </c>
       <c r="AK999" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="AL999" t="s">
         <v>42</v>
@@ -25399,13 +25405,13 @@
     </row>
     <row r="1000" spans="23:38">
       <c r="W1000" t="s">
-        <v>1491</v>
+        <v>463</v>
       </c>
       <c r="X1000" t="s">
         <v>42</v>
       </c>
       <c r="AK1000" t="s">
-        <v>1491</v>
+        <v>463</v>
       </c>
       <c r="AL1000" t="s">
         <v>42</v>
@@ -25450,6 +25456,34 @@
         <v>1494</v>
       </c>
       <c r="AL1003" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1004" spans="23:38">
+      <c r="W1004" t="s">
+        <v>1495</v>
+      </c>
+      <c r="X1004" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1004" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AL1004" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1005" spans="23:38">
+      <c r="W1005" t="s">
+        <v>1496</v>
+      </c>
+      <c r="X1005" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1005" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AL1005" t="s">
         <v>42</v>
       </c>
     </row>
@@ -27768,7 +27802,7 @@
   </mergeCells>
   <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1000001">
-      <formula1>'Codelijsten'!$W$4:$W$1003</formula1>
+      <formula1>'Codelijsten'!$W$4:$W$1005</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1000001">
       <formula1>'Codelijsten'!$Y$4:$Y$68</formula1>
@@ -27795,7 +27829,7 @@
       <formula1>'Codelijsten'!$AI$4:$AI$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY8:AY1000001">
-      <formula1>'Codelijsten'!$AK$4:$AK$1003</formula1>
+      <formula1>'Codelijsten'!$AK$4:$AK$1005</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB8:BB1000001">
       <formula1>'Codelijsten'!$AM$4:$AM$68</formula1>
@@ -27839,50 +27873,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="B1" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="B2" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="B3" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="B4" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="B5" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="B6" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
     </row>
   </sheetData>

--- a/templates/productie/productie_opdracht_template.xlsx
+++ b/templates/productie/productie_opdracht_template.xlsx
@@ -5243,7 +5243,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-12-18 01:28:30.164161</t>
+    <t>2026-01-01 02:16:30.788106</t>
   </si>
   <si>
     <t>version</t>
